--- a/skript/adeo Verlag.xlsx
+++ b/skript/adeo Verlag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Objektgattung</t>
   </si>
@@ -22,10 +22,49 @@
     <t>Genauere Objektgattung</t>
   </si>
   <si>
+    <t>Verlagsidn</t>
+  </si>
+  <si>
+    <t>!1064347673!</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Jahr Zusatz</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Umfang Anzahl</t>
+  </si>
+  <si>
+    <t>Umfangsbeschreibung</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
     <t>Verlagsname</t>
   </si>
   <si>
-    <t>!1064347673!</t>
+    <t>adeo Verlag</t>
+  </si>
+  <si>
+    <t>Verlagskürzel</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Qd-Verknüpfung</t>
+  </si>
+  <si>
+    <t>Jahr normiert</t>
   </si>
 </sst>
 </file>
@@ -357,13 +396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,20 +412,70 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:15">
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A999">
       <formula1>"Schreibzeug,Kleindrucksammlung,Plakat,USB,Postkarte,Noitzbuch"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B999">
       <formula1>"Lineal !941947084!,Radiergummi !958214182!,Locher !967681847!,Aufkleber !041209427!,Flaschenöffner !975720694!"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I999">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E999">
+      <formula1>4</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
